--- a/JupyterNotebooks/AveragedIntensites/RGossF-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/RGossF-HW20.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="RGossF-HW20.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="RGossF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -964,7 +964,7 @@
         <v>0.9936346311373494</v>
       </c>
       <c r="H13">
-        <v>0.9990324650035263</v>
+        <v>0.9990324650035259</v>
       </c>
       <c r="I13">
         <v>0.995282849392248</v>
@@ -1037,7 +1037,7 @@
         <v>1.071102049269147</v>
       </c>
       <c r="E15">
-        <v>0.977820228608794</v>
+        <v>0.9778202286087941</v>
       </c>
       <c r="F15">
         <v>0.9841724240860747</v>
@@ -1046,7 +1046,7 @@
         <v>1.029099909736503</v>
       </c>
       <c r="H15">
-        <v>0.9697320750700569</v>
+        <v>0.9697320750700568</v>
       </c>
       <c r="I15">
         <v>0.9782773313439396</v>
@@ -1061,7 +1061,48 @@
         <v>1.004316781512523</v>
       </c>
       <c r="M15">
-        <v>1.001700669685753</v>
+        <v>1.001700669685752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9834174039073463</v>
+      </c>
+      <c r="D16">
+        <v>0.9924703951312377</v>
+      </c>
+      <c r="E16">
+        <v>1.027488790855159</v>
+      </c>
+      <c r="F16">
+        <v>0.9834174039073463</v>
+      </c>
+      <c r="G16">
+        <v>0.9211094504501502</v>
+      </c>
+      <c r="H16">
+        <v>1.201031381252061</v>
+      </c>
+      <c r="I16">
+        <v>1.007901537378366</v>
+      </c>
+      <c r="J16">
+        <v>0.9924703951312377</v>
+      </c>
+      <c r="K16">
+        <v>1.009979592993199</v>
+      </c>
+      <c r="L16">
+        <v>0.9966984984502724</v>
+      </c>
+      <c r="M16">
+        <v>1.022236493162387</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/RGossF-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/RGossF-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9834174039073463</v>

--- a/JupyterNotebooks/AveragedIntensites/RGossF-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/RGossF-HW20.xlsx
@@ -967,7 +967,7 @@
         <v>0.9936346311373494</v>
       </c>
       <c r="H13">
-        <v>0.9990324650035259</v>
+        <v>0.9990324650035263</v>
       </c>
       <c r="I13">
         <v>0.995282849392248</v>
@@ -1040,7 +1040,7 @@
         <v>1.071102049269147</v>
       </c>
       <c r="E15">
-        <v>0.9778202286087941</v>
+        <v>0.977820228608794</v>
       </c>
       <c r="F15">
         <v>0.9841724240860747</v>
@@ -1049,7 +1049,7 @@
         <v>1.029099909736503</v>
       </c>
       <c r="H15">
-        <v>0.9697320750700568</v>
+        <v>0.9697320750700569</v>
       </c>
       <c r="I15">
         <v>0.9782773313439396</v>
@@ -1064,7 +1064,7 @@
         <v>1.004316781512523</v>
       </c>
       <c r="M15">
-        <v>1.001700669685752</v>
+        <v>1.001700669685753</v>
       </c>
     </row>
     <row r="16" spans="1:13">

--- a/JupyterNotebooks/AveragedIntensites/RGossF-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/RGossF-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.533363999999995</v>
+        <v>0.9834174039073463</v>
       </c>
       <c r="D10">
-        <v>0.2044159999999988</v>
+        <v>0.9924703951312377</v>
       </c>
       <c r="E10">
-        <v>1.064768</v>
+        <v>1.027488790855159</v>
       </c>
       <c r="F10">
-        <v>1.533363999999995</v>
+        <v>0.9834174039073463</v>
       </c>
       <c r="G10">
-        <v>0.5538119999999989</v>
+        <v>0.9211094504501502</v>
       </c>
       <c r="H10">
-        <v>1.280612000000002</v>
+        <v>1.201031381252061</v>
       </c>
       <c r="I10">
-        <v>1.151756000000001</v>
+        <v>1.007901537378366</v>
       </c>
       <c r="J10">
-        <v>0.2044159999999988</v>
+        <v>0.9924703951312377</v>
       </c>
       <c r="K10">
-        <v>0.6345919999999994</v>
+        <v>1.009979592993199</v>
       </c>
       <c r="L10">
-        <v>1.083977999999997</v>
+        <v>0.9966984984502724</v>
       </c>
       <c r="M10">
-        <v>0.9647879999999992</v>
+        <v>1.022236493162387</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.97</v>
+        <v>0.8371567974270111</v>
       </c>
       <c r="D11">
-        <v>0.21</v>
+        <v>1.021630106477102</v>
       </c>
       <c r="E11">
-        <v>0.8422125000000021</v>
+        <v>1.098633541916062</v>
       </c>
       <c r="F11">
-        <v>1.97</v>
+        <v>0.8371567974270111</v>
       </c>
       <c r="G11">
-        <v>0.64</v>
+        <v>0.9121977028846366</v>
       </c>
       <c r="H11">
-        <v>0.66</v>
+        <v>1.402894613001126</v>
       </c>
       <c r="I11">
-        <v>1.093200000000002</v>
+        <v>1.01717294882505</v>
       </c>
       <c r="J11">
-        <v>0.21</v>
+        <v>1.021630106477102</v>
       </c>
       <c r="K11">
-        <v>0.5261062500000011</v>
+        <v>1.060131824196582</v>
       </c>
       <c r="L11">
-        <v>1.248053125000001</v>
+        <v>0.9486443108117966</v>
       </c>
       <c r="M11">
-        <v>0.9025687500000008</v>
+        <v>1.048280951755165</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.554627968614394</v>
+        <v>0.8385514616382459</v>
       </c>
       <c r="D12">
-        <v>0.5398138820607996</v>
+        <v>1.013897830154996</v>
       </c>
       <c r="E12">
-        <v>0.9097795658751986</v>
+        <v>1.100537629924459</v>
       </c>
       <c r="F12">
-        <v>1.554627968614394</v>
+        <v>0.8385514616382459</v>
       </c>
       <c r="G12">
-        <v>0.7901613521920032</v>
+        <v>0.9084753217044876</v>
       </c>
       <c r="H12">
-        <v>0.8104226518015979</v>
+        <v>1.407075206806144</v>
       </c>
       <c r="I12">
-        <v>1.054983367475204</v>
+        <v>1.018943265240543</v>
       </c>
       <c r="J12">
-        <v>0.5398138820607996</v>
+        <v>1.013897830154996</v>
       </c>
       <c r="K12">
-        <v>0.7247967239679991</v>
+        <v>1.057217730039728</v>
       </c>
       <c r="L12">
-        <v>1.139712346291197</v>
+        <v>0.9478845958389868</v>
       </c>
       <c r="M12">
-        <v>0.9432981313365328</v>
+        <v>1.047913452578146</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9915452676288532</v>
+        <v>0.8371622045295091</v>
       </c>
       <c r="D13">
-        <v>0.997307825719694</v>
+        <v>1.020085267189022</v>
       </c>
       <c r="E13">
-        <v>0.9949511703662497</v>
+        <v>1.099224192474955</v>
       </c>
       <c r="F13">
-        <v>0.9915452676288532</v>
+        <v>0.8371622045295091</v>
       </c>
       <c r="G13">
-        <v>0.9936346311373494</v>
+        <v>0.91130274948785</v>
       </c>
       <c r="H13">
-        <v>0.9990324650035263</v>
+        <v>1.404387079221662</v>
       </c>
       <c r="I13">
-        <v>0.995282849392248</v>
+        <v>1.017660180473235</v>
       </c>
       <c r="J13">
-        <v>0.997307825719694</v>
+        <v>1.020085267189022</v>
       </c>
       <c r="K13">
-        <v>0.9961294980429718</v>
+        <v>1.059654729831988</v>
       </c>
       <c r="L13">
-        <v>0.9938373828359125</v>
+        <v>0.9484084671807488</v>
       </c>
       <c r="M13">
-        <v>0.9952923682079867</v>
+        <v>1.048303612229372</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.026909206302194</v>
+        <v>1.533363999999995</v>
       </c>
       <c r="D14">
-        <v>0.9735687258464679</v>
+        <v>0.2044159999999988</v>
       </c>
       <c r="E14">
-        <v>0.9831971746906668</v>
+        <v>1.064768</v>
       </c>
       <c r="F14">
-        <v>1.026909206302194</v>
+        <v>1.533363999999995</v>
       </c>
       <c r="G14">
-        <v>1.0028603328711</v>
+        <v>0.5538119999999989</v>
       </c>
       <c r="H14">
-        <v>0.9291011052357676</v>
+        <v>1.280612000000002</v>
       </c>
       <c r="I14">
-        <v>0.9946584642688844</v>
+        <v>1.151756000000001</v>
       </c>
       <c r="J14">
-        <v>0.9735687258464679</v>
+        <v>0.2044159999999988</v>
       </c>
       <c r="K14">
-        <v>0.9783829502685674</v>
+        <v>0.6345919999999994</v>
       </c>
       <c r="L14">
-        <v>1.002646078285381</v>
+        <v>1.083977999999997</v>
       </c>
       <c r="M14">
-        <v>0.9850491682025133</v>
+        <v>0.9647879999999992</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9841724240860747</v>
+        <v>1.97</v>
       </c>
       <c r="D15">
-        <v>1.071102049269147</v>
+        <v>0.21</v>
       </c>
       <c r="E15">
-        <v>0.977820228608794</v>
+        <v>0.8422125000000021</v>
       </c>
       <c r="F15">
-        <v>0.9841724240860747</v>
+        <v>1.97</v>
       </c>
       <c r="G15">
-        <v>1.029099909736503</v>
+        <v>0.64</v>
       </c>
       <c r="H15">
-        <v>0.9697320750700569</v>
+        <v>0.66</v>
       </c>
       <c r="I15">
-        <v>0.9782773313439396</v>
+        <v>1.093200000000002</v>
       </c>
       <c r="J15">
-        <v>1.071102049269147</v>
+        <v>0.21</v>
       </c>
       <c r="K15">
-        <v>1.024461138938971</v>
+        <v>0.5261062500000011</v>
       </c>
       <c r="L15">
-        <v>1.004316781512523</v>
+        <v>1.248053125000001</v>
       </c>
       <c r="M15">
-        <v>1.001700669685753</v>
+        <v>0.9025687500000008</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9834174039073463</v>
+        <v>1.554627968614394</v>
       </c>
       <c r="D16">
-        <v>0.9924703951312377</v>
+        <v>0.5398138820607996</v>
       </c>
       <c r="E16">
-        <v>1.027488790855159</v>
+        <v>0.9097795658751986</v>
       </c>
       <c r="F16">
-        <v>0.9834174039073463</v>
+        <v>1.554627968614394</v>
       </c>
       <c r="G16">
-        <v>0.9211094504501502</v>
+        <v>0.7901613521920032</v>
       </c>
       <c r="H16">
-        <v>1.201031381252061</v>
+        <v>0.8104226518015979</v>
       </c>
       <c r="I16">
-        <v>1.007901537378366</v>
+        <v>1.054983367475204</v>
       </c>
       <c r="J16">
-        <v>0.9924703951312377</v>
+        <v>0.5398138820607996</v>
       </c>
       <c r="K16">
-        <v>1.009979592993199</v>
+        <v>0.7247967239679991</v>
       </c>
       <c r="L16">
-        <v>0.9966984984502724</v>
+        <v>1.139712346291197</v>
       </c>
       <c r="M16">
-        <v>1.022236493162387</v>
+        <v>0.9432981313365328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9915452676288532</v>
+      </c>
+      <c r="D17">
+        <v>0.997307825719694</v>
+      </c>
+      <c r="E17">
+        <v>0.9949511703662497</v>
+      </c>
+      <c r="F17">
+        <v>0.9915452676288532</v>
+      </c>
+      <c r="G17">
+        <v>0.9936346311373494</v>
+      </c>
+      <c r="H17">
+        <v>0.9990324650035259</v>
+      </c>
+      <c r="I17">
+        <v>0.995282849392248</v>
+      </c>
+      <c r="J17">
+        <v>0.997307825719694</v>
+      </c>
+      <c r="K17">
+        <v>0.9961294980429718</v>
+      </c>
+      <c r="L17">
+        <v>0.9938373828359125</v>
+      </c>
+      <c r="M17">
+        <v>0.9952923682079867</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.026909206302194</v>
+      </c>
+      <c r="D18">
+        <v>0.9735687258464679</v>
+      </c>
+      <c r="E18">
+        <v>0.9831971746906668</v>
+      </c>
+      <c r="F18">
+        <v>1.026909206302194</v>
+      </c>
+      <c r="G18">
+        <v>1.0028603328711</v>
+      </c>
+      <c r="H18">
+        <v>0.9291011052357676</v>
+      </c>
+      <c r="I18">
+        <v>0.9946584642688844</v>
+      </c>
+      <c r="J18">
+        <v>0.9735687258464679</v>
+      </c>
+      <c r="K18">
+        <v>0.9783829502685674</v>
+      </c>
+      <c r="L18">
+        <v>1.002646078285381</v>
+      </c>
+      <c r="M18">
+        <v>0.9850491682025133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9841724240860747</v>
+      </c>
+      <c r="D19">
+        <v>1.071102049269147</v>
+      </c>
+      <c r="E19">
+        <v>0.9778202286087941</v>
+      </c>
+      <c r="F19">
+        <v>0.9841724240860747</v>
+      </c>
+      <c r="G19">
+        <v>1.029099909736503</v>
+      </c>
+      <c r="H19">
+        <v>0.9697320750700568</v>
+      </c>
+      <c r="I19">
+        <v>0.9782773313439396</v>
+      </c>
+      <c r="J19">
+        <v>1.071102049269147</v>
+      </c>
+      <c r="K19">
+        <v>1.024461138938971</v>
+      </c>
+      <c r="L19">
+        <v>1.004316781512523</v>
+      </c>
+      <c r="M19">
+        <v>1.001700669685752</v>
       </c>
     </row>
   </sheetData>
